--- a/Mifos Automation Excels/Client/3513-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-PERIODIC-SP-FLAT-PENALTY-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3513-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-PERIODIC-SP-FLAT-PENALTY-Makerepayment1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -160,9 +160,6 @@
     <t>INCOME</t>
   </si>
   <si>
-    <t>L119</t>
-  </si>
-  <si>
     <t>Penalties Receivable(5)</t>
   </si>
   <si>
@@ -175,6 +172,24 @@
     <t>$ 10,000</t>
   </si>
   <si>
+    <t>Income from interest(7)</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>L88</t>
+  </si>
+  <si>
+    <t>L85</t>
+  </si>
+  <si>
+    <t>L89</t>
+  </si>
+  <si>
+    <t>L90</t>
+  </si>
+  <si>
     <t>$ 101.92</t>
   </si>
   <si>
@@ -184,25 +199,13 @@
     <t>$ 887.72</t>
   </si>
   <si>
-    <t xml:space="preserve">Head Office </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L2397 </t>
-  </si>
-  <si>
-    <t>Income from interest(7)</t>
-  </si>
-  <si>
-    <t>L2397</t>
+    <t>$ 84.82</t>
   </si>
   <si>
     <t>$ 93.91</t>
   </si>
   <si>
     <t>$ 100</t>
-  </si>
-  <si>
-    <t>system</t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -341,7 +344,11 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,7 +652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -678,7 +687,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,10 +806,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,6 +907,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
@@ -938,6 +948,9 @@
         <v>0</v>
       </c>
       <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
@@ -983,6 +996,9 @@
       <c r="N4" s="6">
         <v>0</v>
       </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
       <c r="P4" s="6">
         <v>887.72</v>
       </c>
@@ -1026,6 +1042,9 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
       <c r="P5" s="6">
         <v>987.72</v>
       </c>
@@ -1069,6 +1088,9 @@
       <c r="N6" s="6">
         <v>0</v>
       </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
       <c r="P6" s="6">
         <v>887.72</v>
       </c>
@@ -1112,6 +1134,9 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
       <c r="P7" s="6">
         <v>887.72</v>
       </c>
@@ -1155,8 +1180,287 @@
       <c r="N8" s="6">
         <v>0</v>
       </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
       <c r="P8" s="6">
         <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7">
+        <v>42217</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>835.15</v>
+      </c>
+      <c r="G9" s="9">
+        <v>4322.71</v>
+      </c>
+      <c r="H9" s="6">
+        <v>52.57</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7">
+        <v>42248</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
+        <v>843.66</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3479.05</v>
+      </c>
+      <c r="H10" s="6">
+        <v>44.06</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7">
+        <v>42278</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
+        <v>853.41</v>
+      </c>
+      <c r="G11" s="9">
+        <v>2625.64</v>
+      </c>
+      <c r="H11" s="6">
+        <v>34.31</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>31</v>
+      </c>
+      <c r="C12" s="7">
+        <v>42309</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
+        <v>860.96</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1764.68</v>
+      </c>
+      <c r="H12" s="6">
+        <v>26.76</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>30</v>
+      </c>
+      <c r="C13" s="7">
+        <v>42339</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>870.31</v>
+      </c>
+      <c r="G13" s="6">
+        <v>894.37</v>
+      </c>
+      <c r="H13" s="6">
+        <v>17.41</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>887.72</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>31</v>
+      </c>
+      <c r="C14" s="7">
+        <v>42370</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
+        <v>894.37</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>903.49</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>903.49</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1474,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1222,7 +1526,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>2397</v>
+        <v>90</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1256,7 +1560,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>2396</v>
+        <v>89</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
@@ -1290,7 +1594,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>2395</v>
+        <v>88</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>27</v>
@@ -1324,7 +1628,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>2392</v>
+        <v>85</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>27</v>
@@ -1358,7 +1662,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>2391</v>
+        <v>84</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>27</v>
@@ -1445,7 +1749,7 @@
         <v>42005</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>36</v>
@@ -1457,7 +1761,7 @@
         <v>38</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1473,7 +1777,7 @@
         <v>42005</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>36</v>
@@ -1486,7 +1790,7 @@
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J3" s="13"/>
     </row>
@@ -1500,14 +1804,19 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H2" sqref="H2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1541,7 +1850,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>27</v>
@@ -1550,7 +1859,7 @@
         <v>42036</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>36</v>
@@ -1559,16 +1868,16 @@
         <v>35</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>27</v>
@@ -1577,7 +1886,7 @@
         <v>42036</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>36</v>
@@ -1586,16 +1895,16 @@
         <v>35</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>27</v>
@@ -1604,7 +1913,7 @@
         <v>42036</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>36</v>
@@ -1615,10 +1924,10 @@
       <c r="G4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="11"/>
+      <c r="H4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1627,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,7 +1985,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>27</v>
@@ -1684,26 +1993,26 @@
       <c r="C2" s="7">
         <v>42036</v>
       </c>
-      <c r="D2" s="6">
-        <v>1</v>
+      <c r="D2" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="6"/>
+      <c r="H2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>27</v>
@@ -1711,136 +2020,205 @@
       <c r="C3" s="7">
         <v>42036</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
+      <c r="D3" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18" t="s">
         <v>56</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4617</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="6">
+        <v>158</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7">
+        <v>42064</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="16">
+      <c r="E5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>159</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7">
+        <v>42064</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>160</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7">
         <v>42095</v>
       </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4618</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="16">
+      <c r="H8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="18"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>161</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="7">
         <v>42095</v>
       </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4619</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="16">
+      <c r="G9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>162</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7">
         <v>42095</v>
       </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>163</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7">
+        <v>42095</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4620</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="16">
-        <v>42095</v>
-      </c>
-      <c r="D8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/3513-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-PERIODIC-SP-FLAT-PENALTY-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3513-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-PERIODIC-SP-FLAT-PENALTY-Makerepayment1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -211,9 +216,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -341,7 +346,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -358,6 +363,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -406,7 +414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,9 +447,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,6 +499,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -806,10 +848,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,12 +868,13 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -871,17 +914,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -908,8 +952,9 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -947,17 +992,18 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
+      <c r="N3" s="6"/>
       <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -993,17 +1039,18 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="6">
         <v>0</v>
       </c>
       <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1039,17 +1086,18 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
         <v>987.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1085,17 +1133,18 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1131,17 +1180,18 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1177,17 +1227,18 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1223,17 +1274,18 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
+      <c r="N9" s="6"/>
       <c r="O9" s="6">
         <v>0</v>
       </c>
       <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1269,17 +1321,18 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="6">
         <v>0</v>
       </c>
       <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1315,17 +1368,18 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
+      <c r="N11" s="6"/>
       <c r="O11" s="6">
         <v>0</v>
       </c>
       <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1361,17 +1415,18 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="6">
         <v>0</v>
       </c>
       <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1407,17 +1462,18 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1453,13 +1509,14 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
+      <c r="N14" s="6"/>
       <c r="O14" s="6">
         <v>0</v>
       </c>
       <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>903.49</v>
       </c>
     </row>
@@ -1938,7 +1995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
